--- a/data/trans_bre/P2C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,5%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 8,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 7,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 10,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,68; 12,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 41,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 20,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 40,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,04; 82,28</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,17%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 10,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,42; 13,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,98; 11,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 37,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,11; 33,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,91; 27,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,26; 35,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,56; 394,49</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 13,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 17,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,14; 16,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 3,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,4; 49,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 47,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,09; 59,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,4; 42,95</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,67%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 7,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,38; 9,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,33; 9,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,28; 29,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,01; 28,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,51; 21,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,57; 33,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,56; 265,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,13</t>
+          <t>1,27; 8,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 7,81</t>
+          <t>-0,43; 7,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,45</t>
+          <t>1,25; 10,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 12,28</t>
+          <t>4,89; 11,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 41,06</t>
+          <t>5,53; 41,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 20,68</t>
+          <t>-1,15; 21,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 40,62</t>
+          <t>4,21; 39,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,04; 82,28</t>
+          <t>24,05; 77,91</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,3</t>
+          <t>3,32; 10,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,08</t>
+          <t>6,41; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,05</t>
+          <t>4,96; 11,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 37,97</t>
+          <t>3,57; 33,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 33,22</t>
+          <t>9,53; 32,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 27,77</t>
+          <t>12,8; 27,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 35,16</t>
+          <t>14,2; 35,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,56; 394,49</t>
+          <t>29,5; 350,5</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,57</t>
+          <t>1,66; 13,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 17,34</t>
+          <t>3,92; 17,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 16,28</t>
+          <t>4,31; 15,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,76</t>
+          <t>-2,77; 4,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 49,35</t>
+          <t>4,41; 48,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 47,38</t>
+          <t>8,24; 47,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 59,8</t>
+          <t>12,5; 55,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 42,95</t>
+          <t>-22,12; 50,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,85</t>
+          <t>3,03; 7,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 9,34</t>
+          <t>4,51; 9,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,98</t>
+          <t>5,11; 9,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 29,62</t>
+          <t>4,08; 24,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 28,25</t>
+          <t>9,83; 27,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 21,42</t>
+          <t>9,93; 21,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 33,15</t>
+          <t>15,77; 31,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,56; 265,62</t>
+          <t>31,98; 233,45</t>
         </is>
       </c>
     </row>
